--- a/output/fit_clients/fit_round_422.xlsx
+++ b/output/fit_clients/fit_round_422.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1989503956.302823</v>
+        <v>1681929680.911496</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08623986283632644</v>
+        <v>0.1114828251249614</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03595655905549718</v>
+        <v>0.03801329591551469</v>
       </c>
       <c r="H2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
         <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>994751972.380828</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2225456876.319335</v>
+        <v>2205968170.329694</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1734496947476454</v>
+        <v>0.1302429512281831</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0392379790068527</v>
+        <v>0.04631273115276265</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>9</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1112728513.156512</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5046536504.703249</v>
+        <v>4093973606.317089</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1654719617922007</v>
+        <v>0.1120765092795734</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03608295203694625</v>
+        <v>0.02905197913283465</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>152</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2523268340.682502</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4107407042.846243</v>
+        <v>3555523123.745768</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07731250578547141</v>
+        <v>0.07742098222677581</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03696275387020256</v>
+        <v>0.03668414635420116</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>156</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2053703518.058547</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1890436829.82098</v>
+        <v>2229721234.681333</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1071751945977717</v>
+        <v>0.1371354073357613</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0561046419179656</v>
+        <v>0.03576723802809548</v>
       </c>
       <c r="H6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>79</v>
-      </c>
-      <c r="J6" t="n">
-        <v>945218456.378355</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -666,22 +626,16 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2005074793.346771</v>
+        <v>2739167247.23034</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09865300989376272</v>
+        <v>0.06173177373849791</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03591362644486249</v>
+        <v>0.04381023594728348</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>133</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1002537457.326096</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2761475833.725186</v>
+        <v>2517779328.265176</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1903443168745113</v>
+        <v>0.15039874938316</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03201107122517173</v>
+        <v>0.02556645382798512</v>
       </c>
       <c r="H8" t="b">
         <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>134</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1380737950.010024</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2136930765.174354</v>
+        <v>2306014547.508721</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1880775774686475</v>
+        <v>0.1574892487543414</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03699015435764447</v>
+        <v>0.0343060249069835</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1068465390.224185</v>
       </c>
     </row>
     <row r="10">
@@ -768,22 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5418148542.395267</v>
+        <v>5460755419.803887</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1898599711748256</v>
+        <v>0.1963717443921371</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03683505982127965</v>
+        <v>0.03895957075742403</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>177</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2709074402.887893</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3255762888.460065</v>
+        <v>3829324002.952873</v>
       </c>
       <c r="F11" t="n">
-        <v>0.115999283504762</v>
+        <v>0.1611537800744924</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04079013420406646</v>
+        <v>0.03940124935377262</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>174</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1627881405.030687</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2843668479.117214</v>
+        <v>2079277113.362245</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1526591868096058</v>
+        <v>0.1514822967455282</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04879313836915832</v>
+        <v>0.03619242171556421</v>
       </c>
       <c r="H12" t="b">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>144</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1421834243.287835</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -870,22 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5320743784.729153</v>
+        <v>3307936516.138413</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0619245297095713</v>
+        <v>0.09435043006152904</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02310237595376747</v>
+        <v>0.03113036179796873</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>141</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2660371880.22653</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3706847976.382484</v>
+        <v>2378717574.21097</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1236718722696498</v>
+        <v>0.1532574595090494</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04275014220593286</v>
+        <v>0.02763396788082759</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>136</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1853423971.457183</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1188483865.479892</v>
+        <v>1668091086.258423</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09686687435781832</v>
+        <v>0.07099080159324543</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03566624967336894</v>
+        <v>0.04612210155004408</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>594241947.6209774</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2052411442.009523</v>
+        <v>2545529118.566104</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09253371533556573</v>
+        <v>0.1015721204491116</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04095403410792191</v>
+        <v>0.0322012791081595</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>86</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1026205791.827107</v>
       </c>
     </row>
     <row r="17">
@@ -1006,22 +906,16 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5064730017.092358</v>
+        <v>3538877085.884489</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1487741867634567</v>
+        <v>0.1279991741847055</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04673935929337349</v>
+        <v>0.03698312632161599</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>125</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2532364990.555092</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3749501824.049007</v>
+        <v>3369377665.193985</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1727169543727662</v>
+        <v>0.1776193236083839</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0210843010734362</v>
+        <v>0.02846600101077003</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>138</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1874750888.034602</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1213212614.258337</v>
+        <v>1178896191.051126</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1689481506007256</v>
+        <v>0.1474408146926159</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01767918975209512</v>
+        <v>0.02383815490996032</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>606606388.2613287</v>
       </c>
     </row>
     <row r="20">
@@ -1108,22 +990,16 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2711097418.571366</v>
+        <v>2594863763.300267</v>
       </c>
       <c r="F20" t="n">
-        <v>0.125118599226942</v>
+        <v>0.1050524393389912</v>
       </c>
       <c r="G20" t="n">
-        <v>0.01964417393989844</v>
+        <v>0.02458956694475244</v>
       </c>
       <c r="H20" t="b">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>57</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1355548659.888685</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1142,22 +1018,16 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1761116031.654554</v>
+        <v>2596964805.803949</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06390280119982276</v>
+        <v>0.1016886917014452</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03694285099496968</v>
+        <v>0.03713790381262248</v>
       </c>
       <c r="H21" t="b">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>34</v>
-      </c>
-      <c r="J21" t="n">
-        <v>880558074.6555952</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3213403026.522709</v>
+        <v>3220264997.201248</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1211468850179662</v>
+        <v>0.1239994191658045</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05008652973274043</v>
+        <v>0.04494795271861492</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>118</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1606701562.032416</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1342053639.2501</v>
+        <v>1515882163.411202</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1383602652833769</v>
+        <v>0.1432699805116103</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03929644128555474</v>
+        <v>0.05206120556961959</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>671026832.1976838</v>
       </c>
     </row>
     <row r="24">
@@ -1244,22 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3391756300.841585</v>
+        <v>3256264946.189336</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1133442322954283</v>
+        <v>0.09856956726626016</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02508729027430138</v>
+        <v>0.03670161144087682</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>123</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1695878159.329065</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1029214262.02719</v>
+        <v>1434044055.711158</v>
       </c>
       <c r="F25" t="n">
-        <v>0.07596922803002579</v>
+        <v>0.1157079736523251</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02865742720856119</v>
+        <v>0.02838818681947103</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>514607188.2893152</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1311864339.85287</v>
+        <v>889235227.7783481</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1008294910616296</v>
+        <v>0.1023387501389817</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03291325700716275</v>
+        <v>0.03628036859646689</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>655932218.3615103</v>
       </c>
     </row>
     <row r="27">
@@ -1346,22 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4540827715.607956</v>
+        <v>3250782951.784829</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1346026401825399</v>
+        <v>0.1147389277280158</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02579929430993959</v>
+        <v>0.02602391584394886</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>102</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2270413841.088362</v>
       </c>
     </row>
     <row r="28">
@@ -1380,22 +1214,16 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3042783499.734038</v>
+        <v>2655639373.158812</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1300394313013139</v>
+        <v>0.1172581394478384</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04596760751968305</v>
+        <v>0.05028738906055339</v>
       </c>
       <c r="H28" t="b">
         <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>135</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1521391764.812537</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5674084768.13783</v>
+        <v>5532152681.290899</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1228162555892599</v>
+        <v>0.1057258859869603</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04128803319495928</v>
+        <v>0.0309298681259372</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>186</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2837042284.990941</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2038129646.56512</v>
+        <v>2285268216.843909</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1278284991782825</v>
+        <v>0.1219843761665503</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03877175486025839</v>
+        <v>0.02536647432826932</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1019064865.132089</v>
       </c>
     </row>
     <row r="31">
@@ -1482,22 +1298,16 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1285027273.907645</v>
+        <v>1022256277.543886</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1109927572482542</v>
+        <v>0.08275460880483501</v>
       </c>
       <c r="G31" t="n">
-        <v>0.05214253576740764</v>
+        <v>0.04254658185430451</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>642513568.4120686</v>
       </c>
     </row>
     <row r="32">
@@ -1516,22 +1326,16 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1464386117.793295</v>
+        <v>1872042200.922806</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1156855896068049</v>
+        <v>0.09175282693123445</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02702246754527629</v>
+        <v>0.03526995204549589</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>732193119.8981562</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2548942255.294875</v>
+        <v>2343854198.55762</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1661169761612744</v>
+        <v>0.1848402711760142</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05873300848812429</v>
+        <v>0.04992951744779245</v>
       </c>
       <c r="H33" t="b">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>128</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1274471161.688697</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1453857032.375458</v>
+        <v>1035232660.357737</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07422927207642729</v>
+        <v>0.1029320777201874</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02367959818784257</v>
+        <v>0.02284848366928988</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>726928479.6121453</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1178849680.133101</v>
+        <v>1341742804.516174</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07546584909153616</v>
+        <v>0.1150453511722648</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0291941469647271</v>
+        <v>0.03043861441112833</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>589424819.4480828</v>
       </c>
     </row>
     <row r="36">
@@ -1652,22 +1438,16 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2351214253.747095</v>
+        <v>2387980073.631151</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1378915626088718</v>
+        <v>0.1634392453796163</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02362874908669357</v>
+        <v>0.02725664889009485</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>107</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1175607160.799017</v>
       </c>
     </row>
     <row r="37">
@@ -1686,22 +1466,16 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2458987004.408063</v>
+        <v>2403256070.805431</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1047391623323593</v>
+        <v>0.1070227318725765</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02958483079648742</v>
+        <v>0.03531470394774858</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>114</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1229493592.644679</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1848132419.432166</v>
+        <v>1899414728.468624</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1154117887900123</v>
+        <v>0.1209042922661307</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03676723716102817</v>
+        <v>0.03895470124314084</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>924066209.8162565</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1566792708.244191</v>
+        <v>1751887140.279012</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1366194190332626</v>
+        <v>0.1258274311165033</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02723990766107808</v>
+        <v>0.02453445778865026</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>783396414.4672308</v>
       </c>
     </row>
     <row r="40">
@@ -1788,22 +1550,16 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1502671129.922257</v>
+        <v>1710868148.439076</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1390105509960463</v>
+        <v>0.1327545179975091</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05689154036758575</v>
+        <v>0.04553918315214982</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>751335530.5099704</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1933680741.596977</v>
+        <v>2382981344.651664</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1170789443389824</v>
+        <v>0.1424707489834812</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03838738158650755</v>
+        <v>0.04353681762341224</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>106</v>
-      </c>
-      <c r="J41" t="n">
-        <v>966840451.5337017</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3874976520.228261</v>
+        <v>3752477935.696141</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0893906867844424</v>
+        <v>0.1192382068633152</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03450442253154329</v>
+        <v>0.03804384827538453</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>139</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1937488280.789943</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2136155964.733677</v>
+        <v>2339965943.052949</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1905057966726985</v>
+        <v>0.204701941156918</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02061093496581766</v>
+        <v>0.02125973571637624</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>147</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1068078067.641146</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2063747937.381319</v>
+        <v>1492245619.349405</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0866366666967512</v>
+        <v>0.08950488709663813</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02753591924386759</v>
+        <v>0.02314785997107394</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1031874087.752146</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2321713882.629717</v>
+        <v>2166010023.754476</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1214732010637362</v>
+        <v>0.1707618787683154</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04626280092859943</v>
+        <v>0.04968208747246788</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1160856964.628545</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3843104506.575715</v>
+        <v>3546855994.347333</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1396275046883021</v>
+        <v>0.1107827262668702</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05222967258563727</v>
+        <v>0.05908305664515786</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>150</v>
-      </c>
-      <c r="J46" t="n">
-        <v>1921552213.849864</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3645599770.94518</v>
+        <v>4964899724.905757</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1685670808703051</v>
+        <v>0.1274567820787834</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04863222011295444</v>
+        <v>0.05165947010740102</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>114</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1822799864.582383</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -2060,22 +1774,16 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4031676060.890982</v>
+        <v>3239699352.031023</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1075459406943673</v>
+        <v>0.07412416306815155</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03225975616255614</v>
+        <v>0.03306448210086856</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>138</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2015838062.976843</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1293083419.575844</v>
+        <v>1761583423.070659</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1588780742965335</v>
+        <v>0.146726693232317</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03142384962229194</v>
+        <v>0.04234056690126193</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>646541773.9859263</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2942388803.996145</v>
+        <v>2750806641.023925</v>
       </c>
       <c r="F50" t="n">
-        <v>0.128919763054138</v>
+        <v>0.1368777246050947</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05124978559050534</v>
+        <v>0.04828698321698028</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>144</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1471194465.944701</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1291902319.083758</v>
+        <v>1426630800.517303</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1631175618511623</v>
+        <v>0.1279330631037701</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04767715319131279</v>
+        <v>0.04713628003377004</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>645951196.2198805</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5222576562.18735</v>
+        <v>4869328638.485144</v>
       </c>
       <c r="F52" t="n">
-        <v>0.08422002751379794</v>
+        <v>0.1157978337023128</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04299725294525877</v>
+        <v>0.05652805250245701</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>174</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2611288265.63569</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3649892241.736815</v>
+        <v>2430480907.086462</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1951199182411935</v>
+        <v>0.2015261879013146</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03280034127213058</v>
+        <v>0.02387312167961431</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>121</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1824946108.413616</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3407061225.4884</v>
+        <v>3847692094.213159</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1074306867531373</v>
+        <v>0.1176636545938404</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04516593730066502</v>
+        <v>0.03819740560413364</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>136</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1703530630.269801</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3314025482.109574</v>
+        <v>3181772445.401545</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1955557123949889</v>
+        <v>0.2210578389276599</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02108123333909392</v>
+        <v>0.03214616562713646</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>114</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1657012685.732901</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1752897030.982531</v>
+        <v>1178650714.514136</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1559783185399518</v>
+        <v>0.1613148248907619</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04995868625686376</v>
+        <v>0.05328082341703001</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>876448520.3034654</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4217469264.189417</v>
+        <v>4272501298.645746</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1290402101217825</v>
+        <v>0.1619052671182297</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02050678675474036</v>
+        <v>0.02239338854558899</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>134</v>
-      </c>
-      <c r="J57" t="n">
-        <v>2108734738.737831</v>
       </c>
     </row>
     <row r="58">
@@ -2400,22 +2054,16 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1865330746.978282</v>
+        <v>1197068634.733276</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1916750703014719</v>
+        <v>0.138126694995704</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02520407331722406</v>
+        <v>0.03639580987270561</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>932665371.3168958</v>
       </c>
     </row>
     <row r="59">
@@ -2434,22 +2082,16 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4296494954.989035</v>
+        <v>3307424706.842499</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1068628646185871</v>
+        <v>0.1216605922066852</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04813150185274841</v>
+        <v>0.03560188044595117</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>119</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2148247439.16198</v>
       </c>
     </row>
     <row r="60">
@@ -2468,22 +2110,16 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2763794629.34023</v>
+        <v>3269696600.407705</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1591540275585995</v>
+        <v>0.1953270215945882</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02995242379468148</v>
+        <v>0.0307435461500378</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>129</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1381897360.259751</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3155952895.72864</v>
+        <v>2233468514.399234</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1155782834933753</v>
+        <v>0.12686814196079</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02567765308228047</v>
+        <v>0.02427613868750204</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>145</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1577976413.642884</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1290700817.624</v>
+        <v>1289764876.460467</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1559270182494369</v>
+        <v>0.1661931025618404</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03497964773099016</v>
+        <v>0.04857440055382509</v>
       </c>
       <c r="H62" t="b">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>645350360.5068603</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4257209512.880443</v>
+        <v>4817553072.341567</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07793944549127671</v>
+        <v>0.1006645937557645</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03118094837804109</v>
+        <v>0.03016241805658939</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>122</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2128604807.34541</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5404656687.035872</v>
+        <v>5089868524.467185</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1920966380661492</v>
+        <v>0.1894773729034906</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02235660598695223</v>
+        <v>0.02292270413226859</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>131</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2702328478.199811</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5755759305.36014</v>
+        <v>4020944876.348756</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1439061928981619</v>
+        <v>0.1529036032421634</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02970687842391874</v>
+        <v>0.02810106655656985</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>151</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2877879566.511125</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3487567652.023085</v>
+        <v>5730689357.831314</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1326599385677775</v>
+        <v>0.1320539445032201</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04968939995619991</v>
+        <v>0.04248550211100231</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>123</v>
-      </c>
-      <c r="J66" t="n">
-        <v>1743783772.129028</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3256340217.483253</v>
+        <v>2211898323.891956</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07377927622239286</v>
+        <v>0.08646835549257791</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03261951368004253</v>
+        <v>0.04130497873307791</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>134</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1628170105.32099</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5352024315.536911</v>
+        <v>5122458314.346391</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1595069629224713</v>
+        <v>0.1181876493825681</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04836542736554373</v>
+        <v>0.03404487564502071</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>136</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2676012235.501166</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2288392527.751763</v>
+        <v>2048760850.215975</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1342203111555353</v>
+        <v>0.1457413233653076</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04580416398943322</v>
+        <v>0.04883024861077806</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1144196306.122798</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2495467071.712279</v>
+        <v>3473699332.817212</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08339705828477341</v>
+        <v>0.06711088239694708</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03306814987022708</v>
+        <v>0.03108460627911369</v>
       </c>
       <c r="H70" t="b">
-        <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>120</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1247733479.987346</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -2842,22 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5012092576.224959</v>
+        <v>5214075621.135366</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1133479608079211</v>
+        <v>0.171863104472277</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0255353580420006</v>
+        <v>0.02944481219074428</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>153</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2506046394.712061</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1786247944.938169</v>
+        <v>1777763936.570358</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0994349968056229</v>
+        <v>0.08816424528782738</v>
       </c>
       <c r="G72" t="n">
-        <v>0.0462712871986898</v>
+        <v>0.04144345158016788</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>893123953.3216245</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3426733163.20802</v>
+        <v>2631823783.936131</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1108703210321148</v>
+        <v>0.08877241156829051</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04648089906481923</v>
+        <v>0.05016781103319778</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>159</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1713366538.528322</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2944,22 +2502,16 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3418302707.849395</v>
+        <v>3278010789.123151</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1675621266751214</v>
+        <v>0.1199658416703631</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03496409347536226</v>
+        <v>0.02921829693457094</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>144</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1709151383.144174</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2252422659.019409</v>
+        <v>2503904517.479735</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1202626131149897</v>
+        <v>0.1330166999114616</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03482508050144453</v>
+        <v>0.0376069528538649</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1126211269.998216</v>
       </c>
     </row>
     <row r="76">
@@ -3012,22 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4423876443.587295</v>
+        <v>3906015108.876829</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09033163534323846</v>
+        <v>0.08139640852356889</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02383316597705242</v>
+        <v>0.03009822864671435</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>97</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2211938224.274263</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1820409062.662088</v>
+        <v>1899842069.084516</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1170614155323191</v>
+        <v>0.1831323759359249</v>
       </c>
       <c r="G77" t="n">
-        <v>0.03107859660205016</v>
+        <v>0.02149703189926843</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>910204566.346284</v>
       </c>
     </row>
     <row r="78">
@@ -3080,22 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4506951881.040783</v>
+        <v>3903490379.794072</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1149272706755465</v>
+        <v>0.1128838097155644</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03682098700567785</v>
+        <v>0.03812290476315996</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>147</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2253475869.991087</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1323024516.41679</v>
+        <v>1344316895.97299</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1123466655797117</v>
+        <v>0.1657003680350711</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02485371747454573</v>
+        <v>0.02739267272325495</v>
       </c>
       <c r="H79" t="b">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>661512261.4727185</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3882692454.175864</v>
+        <v>5122005378.890773</v>
       </c>
       <c r="F80" t="n">
-        <v>0.108040359389907</v>
+        <v>0.07216552559226688</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02930531456815453</v>
+        <v>0.03764903550504674</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>94</v>
-      </c>
-      <c r="J80" t="n">
-        <v>1941346220.723018</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4192986889.712259</v>
+        <v>4839202628.755513</v>
       </c>
       <c r="F81" t="n">
-        <v>0.122275401268428</v>
+        <v>0.1117625263822423</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02955036846449206</v>
+        <v>0.02592402218519326</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>99</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2096493415.255336</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4096726641.818214</v>
+        <v>4975578907.823208</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1449295159326754</v>
+        <v>0.1513227145677311</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02573371978171083</v>
+        <v>0.02432017540688142</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>148</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2048363355.294081</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2270724274.14322</v>
+        <v>2075320367.693222</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1347764886383865</v>
+        <v>0.10984511836153</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03150146428999</v>
+        <v>0.04014411981490826</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1135362156.063196</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2278986573.956607</v>
+        <v>2426433365.523053</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08701016905914929</v>
+        <v>0.11232561399716</v>
       </c>
       <c r="G84" t="n">
-        <v>0.05129572622627582</v>
+        <v>0.04751143574545365</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>5</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1139493251.119977</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2270715667.739521</v>
+        <v>2992209489.468484</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1346380945616761</v>
+        <v>0.1649224334719465</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04193832146642325</v>
+        <v>0.04053312561596481</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>159</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1135357813.525258</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2691121962.500873</v>
+        <v>2128642175.60314</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1501313802008623</v>
+        <v>0.128200458890555</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02604268473932829</v>
+        <v>0.01780293056324723</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>54</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1345561105.003273</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1313807701.697678</v>
+        <v>1477023309.219769</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1425742288184307</v>
+        <v>0.1531456082441484</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03821189723328391</v>
+        <v>0.0285269843080912</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>656903935.621736</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3584384721.423459</v>
+        <v>2424827406.032481</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1538547731313766</v>
+        <v>0.1334297959280394</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02769598570253511</v>
+        <v>0.03967879809459283</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>168</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1792192448.942819</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2887784093.754133</v>
+        <v>2654740470.092835</v>
       </c>
       <c r="F89" t="n">
-        <v>0.106986299574565</v>
+        <v>0.1296980812155316</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02783350167773802</v>
+        <v>0.02757690281007693</v>
       </c>
       <c r="H89" t="b">
         <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>141</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1443892093.243067</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1521853623.021644</v>
+        <v>1512497267.778114</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1091584372570026</v>
+        <v>0.1168276925861614</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04086080874560714</v>
+        <v>0.04826996156960386</v>
       </c>
       <c r="H90" t="b">
-        <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>760926794.2907094</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1334248671.18389</v>
+        <v>2101700804.774242</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1897017645654446</v>
+        <v>0.1905518194502169</v>
       </c>
       <c r="G91" t="n">
-        <v>0.03838140275611281</v>
+        <v>0.05078409523632973</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>667124396.6203827</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2144746149.95089</v>
+        <v>1874159445.35268</v>
       </c>
       <c r="F92" t="n">
-        <v>0.06796182022016398</v>
+        <v>0.1003743224904827</v>
       </c>
       <c r="G92" t="n">
-        <v>0.02929328814753521</v>
+        <v>0.03209672572485045</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>120</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1072373032.081956</v>
       </c>
     </row>
     <row r="93">
@@ -3590,22 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3242117893.886289</v>
+        <v>3200425307.601962</v>
       </c>
       <c r="F93" t="n">
-        <v>0.0974100406141587</v>
+        <v>0.09915697468827059</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04897449858094367</v>
+        <v>0.04784114350262154</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>128</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1621058996.565596</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1867217277.045695</v>
+        <v>2101046337.747388</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1262978835662207</v>
+        <v>0.160852616110272</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04008369571340538</v>
+        <v>0.03134889845303073</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>2</v>
-      </c>
-      <c r="J94" t="n">
-        <v>933608619.5786442</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2437657457.024432</v>
+        <v>3065735162.750503</v>
       </c>
       <c r="F95" t="n">
-        <v>0.08610672248613875</v>
+        <v>0.1094645698957577</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04283947366922061</v>
+        <v>0.0459369758195463</v>
       </c>
       <c r="H95" t="b">
-        <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>102</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1218828769.145741</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2132856690.004954</v>
+        <v>1636777819.860786</v>
       </c>
       <c r="F96" t="n">
-        <v>0.110575183628196</v>
+        <v>0.1076981878459648</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03581727259707631</v>
+        <v>0.03708459364799371</v>
       </c>
       <c r="H96" t="b">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1066428317.833414</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3840350923.746359</v>
+        <v>3838458208.198343</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1220853211060392</v>
+        <v>0.1439710904968129</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02387714853423645</v>
+        <v>0.02569075062057873</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>136</v>
-      </c>
-      <c r="J97" t="n">
-        <v>1920175505.440619</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -3760,22 +3174,16 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3035168187.058892</v>
+        <v>3109357972.676583</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1297255855991306</v>
+        <v>0.1056745030459966</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03111061685465508</v>
+        <v>0.03061220393049706</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>112</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1517584080.60882</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3024321876.800773</v>
+        <v>3310659252.121451</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1391641453839678</v>
+        <v>0.1456088930989381</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02250156006218939</v>
+        <v>0.03182898861767593</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>134</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1512160926.179112</v>
       </c>
     </row>
     <row r="100">
@@ -3828,22 +3230,16 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4217793709.097527</v>
+        <v>3245611327.811258</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1495464514699131</v>
+        <v>0.1560671309556726</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02492429658413855</v>
+        <v>0.02454732710961045</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>130</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2108896942.635941</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3229140939.370436</v>
+        <v>3213309484.984924</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1795255664108074</v>
+        <v>0.1466463884005053</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03572119515057605</v>
+        <v>0.05345667582265844</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>171</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1614570589.0816</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_422.xlsx
+++ b/output/fit_clients/fit_round_422.xlsx
@@ -480,22 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1681929680.911496</v>
+        <v>2214875131.069848</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1114828251249614</v>
+        <v>0.0861457036640426</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03801329591551469</v>
+        <v>0.03384569325035656</v>
       </c>
       <c r="H2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2205968170.329694</v>
+        <v>1921436516.429364</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1302429512281831</v>
+        <v>0.1386825137125694</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04631273115276265</v>
+        <v>0.04703024297779603</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4093973606.317089</v>
+        <v>3915679220.027</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1120765092795734</v>
+        <v>0.1186631125562976</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02905197913283465</v>
+        <v>0.03499284522016526</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -570,16 +570,16 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3555523123.745768</v>
+        <v>3634720380.072615</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07742098222677581</v>
+        <v>0.1009841757321615</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03668414635420116</v>
+        <v>0.04296299889606869</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -592,22 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2229721234.681333</v>
+        <v>2388357701.205843</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1371354073357613</v>
+        <v>0.1429673329014635</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03576723802809548</v>
+        <v>0.04796395380736318</v>
       </c>
       <c r="H6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -626,13 +626,13 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2739167247.23034</v>
+        <v>3119336430.400763</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06173177373849791</v>
+        <v>0.08394335807764242</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04381023594728348</v>
+        <v>0.04718333217656225</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -654,16 +654,16 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2517779328.265176</v>
+        <v>3910489464.821721</v>
       </c>
       <c r="F8" t="n">
-        <v>0.15039874938316</v>
+        <v>0.1820409861683065</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02556645382798512</v>
+        <v>0.02864488752885208</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2306014547.508721</v>
+        <v>2168402309.754124</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1574892487543414</v>
+        <v>0.1506834051169529</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0343060249069835</v>
+        <v>0.03557411999604278</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,19 +704,19 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5460755419.803887</v>
+        <v>5745490142.391764</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1963717443921371</v>
+        <v>0.1693726079592168</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03895957075742403</v>
+        <v>0.03861067010375498</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3829324002.952873</v>
+        <v>4054695819.518929</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1611537800744924</v>
+        <v>0.1582025111287406</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03940124935377262</v>
+        <v>0.03964326821243447</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,22 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2079277113.362245</v>
+        <v>2311726702.820179</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1514822967455282</v>
+        <v>0.1572989215891063</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03619242171556421</v>
+        <v>0.04735007966081722</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3307936516.138413</v>
+        <v>4218778756.816979</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09435043006152904</v>
+        <v>0.08661482672393415</v>
       </c>
       <c r="G13" t="n">
-        <v>0.03113036179796873</v>
+        <v>0.02802848643343802</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2378717574.21097</v>
+        <v>3680354276.618589</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1532574595090494</v>
+        <v>0.1441462230764076</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02763396788082759</v>
+        <v>0.0281864511787783</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -850,13 +850,13 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1668091086.258423</v>
+        <v>1278957093.549402</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07099080159324543</v>
+        <v>0.07273142855266988</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04612210155004408</v>
+        <v>0.04707825602532494</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2545529118.566104</v>
+        <v>2727924506.48544</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1015721204491116</v>
+        <v>0.1113213985636538</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0322012791081595</v>
+        <v>0.04816260011493891</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3538877085.884489</v>
+        <v>3919955059.617821</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1279991741847055</v>
+        <v>0.1690027844630677</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03698312632161599</v>
+        <v>0.03326148794572532</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3369377665.193985</v>
+        <v>3319017893.65094</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1776193236083839</v>
+        <v>0.1642640905253186</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02846600101077003</v>
+        <v>0.02531563091935706</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1178896191.051126</v>
+        <v>1044666589.678143</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1474408146926159</v>
+        <v>0.1395053524953411</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02383815490996032</v>
+        <v>0.01770793430714865</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,22 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2594863763.300267</v>
+        <v>1951481343.396521</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1050524393389912</v>
+        <v>0.139628288729613</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02458956694475244</v>
+        <v>0.02709122351844073</v>
       </c>
       <c r="H20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1018,16 +1018,16 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2596964805.803949</v>
+        <v>2512181193.427156</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1016886917014452</v>
+        <v>0.07571544151716959</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03713790381262248</v>
+        <v>0.02887250014889379</v>
       </c>
       <c r="H21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3220264997.201248</v>
+        <v>3264670897.758595</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1239994191658045</v>
+        <v>0.1119589093475584</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04494795271861492</v>
+        <v>0.04185450201193645</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1515882163.411202</v>
+        <v>1206965603.895272</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1432699805116103</v>
+        <v>0.176798506343663</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05206120556961959</v>
+        <v>0.04033965717206617</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3256264946.189336</v>
+        <v>2952537046.918867</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09856956726626016</v>
+        <v>0.1191062694641069</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03670161144087682</v>
+        <v>0.0246946531379962</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1434044055.711158</v>
+        <v>1202720279.564945</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1157079736523251</v>
+        <v>0.1086037356595148</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02838818681947103</v>
+        <v>0.02514945659515203</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>889235227.7783481</v>
+        <v>1409511382.749924</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1023387501389817</v>
+        <v>0.1054143548414563</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03628036859646689</v>
+        <v>0.0247457427376636</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3250782951.784829</v>
+        <v>3708771155.335548</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1147389277280158</v>
+        <v>0.1464063382301202</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02602391584394886</v>
+        <v>0.02292265540629125</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,22 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2655639373.158812</v>
+        <v>3069896737.889556</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1172581394478384</v>
+        <v>0.1347242693037279</v>
       </c>
       <c r="G28" t="n">
-        <v>0.05028738906055339</v>
+        <v>0.04735814282589604</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1242,16 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5532152681.290899</v>
+        <v>3605206948.104653</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1057258859869603</v>
+        <v>0.1119387599241834</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0309298681259372</v>
+        <v>0.03722961522983195</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1270,13 +1270,13 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2285268216.843909</v>
+        <v>1568046200.081917</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1219843761665503</v>
+        <v>0.1277083122271072</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02536647432826932</v>
+        <v>0.03889011486230655</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1022256277.543886</v>
+        <v>1265225473.340666</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08275460880483501</v>
+        <v>0.09688277269678716</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04254658185430451</v>
+        <v>0.04364936969372517</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1872042200.922806</v>
+        <v>1698077976.537369</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09175282693123445</v>
+        <v>0.1131038405565843</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03526995204549589</v>
+        <v>0.03214824135521843</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1354,16 +1354,16 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2343854198.55762</v>
+        <v>1947222095.121453</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1848402711760142</v>
+        <v>0.2003321789271442</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04992951744779245</v>
+        <v>0.05121618064253781</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1035232660.357737</v>
+        <v>1385049054.848705</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1029320777201874</v>
+        <v>0.0896238751851757</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02284848366928988</v>
+        <v>0.02581309641463784</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1341742804.516174</v>
+        <v>985614284.0912771</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1150453511722648</v>
+        <v>0.09104079738168781</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03043861441112833</v>
+        <v>0.04156321112714757</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2387980073.631151</v>
+        <v>3216921293.02239</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1634392453796163</v>
+        <v>0.1581376132173404</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02725664889009485</v>
+        <v>0.02306169911895229</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1466,13 +1466,13 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2403256070.805431</v>
+        <v>2491738815.884057</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1070227318725765</v>
+        <v>0.1013014756224846</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03531470394774858</v>
+        <v>0.03352565964184035</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1494,13 +1494,13 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1899414728.468624</v>
+        <v>1961013513.169989</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1209042922661307</v>
+        <v>0.1131191084519212</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03895470124314084</v>
+        <v>0.03365616381846793</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1751887140.279012</v>
+        <v>1513983054.649133</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1258274311165033</v>
+        <v>0.1909837500970934</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02453445778865026</v>
+        <v>0.02438832720169283</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1550,13 +1550,13 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1710868148.439076</v>
+        <v>1539939247.22388</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1327545179975091</v>
+        <v>0.1296390825056645</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04553918315214982</v>
+        <v>0.05424905332594724</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2382981344.651664</v>
+        <v>2794276928.536112</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1424707489834812</v>
+        <v>0.1126205137694419</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04353681762341224</v>
+        <v>0.03905600844780651</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3752477935.696141</v>
+        <v>4292435109.522798</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1192382068633152</v>
+        <v>0.09754992433709717</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03804384827538453</v>
+        <v>0.04058971419729041</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2339965943.052949</v>
+        <v>2839449100.733513</v>
       </c>
       <c r="F43" t="n">
-        <v>0.204701941156918</v>
+        <v>0.146524490460726</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02125973571637624</v>
+        <v>0.02092143266079475</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1492245619.349405</v>
+        <v>2263781265.821686</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08950488709663813</v>
+        <v>0.07008085733286173</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02314785997107394</v>
+        <v>0.02649874972028845</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2166010023.754476</v>
+        <v>1877773458.860255</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1707618787683154</v>
+        <v>0.1815595266377545</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04968208747246788</v>
+        <v>0.05517546931357277</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,19 +1712,19 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3546855994.347333</v>
+        <v>5307100377.152102</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1107827262668702</v>
+        <v>0.1490680174005828</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05908305664515786</v>
+        <v>0.0525590664738857</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4964899724.905757</v>
+        <v>3771070417.447643</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1274567820787834</v>
+        <v>0.1830864464850559</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05165947010740102</v>
+        <v>0.04240167811978311</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3239699352.031023</v>
+        <v>3557558674.510192</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07412416306815155</v>
+        <v>0.07427106765328856</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03306448210086856</v>
+        <v>0.02519606978134643</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1761583423.070659</v>
+        <v>1733965944.498124</v>
       </c>
       <c r="F49" t="n">
-        <v>0.146726693232317</v>
+        <v>0.1586413287622458</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04234056690126193</v>
+        <v>0.03972001807888405</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2750806641.023925</v>
+        <v>3642385885.374966</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1368777246050947</v>
+        <v>0.1427793762938367</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04828698321698028</v>
+        <v>0.05217666756247027</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1426630800.517303</v>
+        <v>1114374311.59987</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1279330631037701</v>
+        <v>0.1624783412808908</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04713628003377004</v>
+        <v>0.04221731101597555</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4869328638.485144</v>
+        <v>4344837067.865446</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1157978337023128</v>
+        <v>0.1329647980462821</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05652805250245701</v>
+        <v>0.0485616404318962</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2430480907.086462</v>
+        <v>3298826551.90284</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2015261879013146</v>
+        <v>0.1904314721243969</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02387312167961431</v>
+        <v>0.03367830721057715</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3847692094.213159</v>
+        <v>4865369795.936156</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1176636545938404</v>
+        <v>0.105563196927268</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03819740560413364</v>
+        <v>0.04750243585302983</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1970,16 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3181772445.401545</v>
+        <v>3839929856.58579</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2210578389276599</v>
+        <v>0.1385081060497743</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03214616562713646</v>
+        <v>0.02869869988057548</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1178650714.514136</v>
+        <v>1212989991.545542</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1613148248907619</v>
+        <v>0.1234388087302934</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05328082341703001</v>
+        <v>0.04686008315834903</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2026,13 +2026,13 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4272501298.645746</v>
+        <v>4246594531.807662</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1619052671182297</v>
+        <v>0.1837834414712307</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02239338854558899</v>
+        <v>0.02189591690536184</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1197068634.733276</v>
+        <v>1796562580.554524</v>
       </c>
       <c r="F58" t="n">
-        <v>0.138126694995704</v>
+        <v>0.1428425272439548</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03639580987270561</v>
+        <v>0.02590209972063061</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3307424706.842499</v>
+        <v>4880376493.239272</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1216605922066852</v>
+        <v>0.08084180740069062</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03560188044595117</v>
+        <v>0.04000133996164343</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3269696600.407705</v>
+        <v>2982305117.48796</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1953270215945882</v>
+        <v>0.1557518716068811</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0307435461500378</v>
+        <v>0.02507659617098926</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2233468514.399234</v>
+        <v>3110609841.132438</v>
       </c>
       <c r="F61" t="n">
-        <v>0.12686814196079</v>
+        <v>0.1232526624669754</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02427613868750204</v>
+        <v>0.03186480464430567</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,22 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1289764876.460467</v>
+        <v>1719082058.388673</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1661931025618404</v>
+        <v>0.1326711783580515</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04857440055382509</v>
+        <v>0.04473928204699536</v>
       </c>
       <c r="H62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4817553072.341567</v>
+        <v>3423208420.609273</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1006645937557645</v>
+        <v>0.107419431508868</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03016241805658939</v>
+        <v>0.02943140065758598</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5089868524.467185</v>
+        <v>3562682825.62039</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1894773729034906</v>
+        <v>0.1516043972074731</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02292270413226859</v>
+        <v>0.03198916173688336</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4020944876.348756</v>
+        <v>5020217568.753426</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1529036032421634</v>
+        <v>0.1469278462873743</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02810106655656985</v>
+        <v>0.0311531233914683</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,19 +2272,19 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5730689357.831314</v>
+        <v>4381687093.90429</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1320539445032201</v>
+        <v>0.1385182052304072</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04248550211100231</v>
+        <v>0.04586148547394001</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
@@ -2306,13 +2306,13 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2211898323.891956</v>
+        <v>2208958533.137084</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08646835549257791</v>
+        <v>0.07081697216879064</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04130497873307791</v>
+        <v>0.03138060526417846</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,19 +2328,19 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5122458314.346391</v>
+        <v>5678936914.067204</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1181876493825681</v>
+        <v>0.1077785788453676</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03404487564502071</v>
+        <v>0.0379762819976413</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2048760850.215975</v>
+        <v>1610639702.679761</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1457413233653076</v>
+        <v>0.1467833230052037</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04883024861077806</v>
+        <v>0.0386839132273224</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2390,16 +2390,16 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3473699332.817212</v>
+        <v>2527519538.06171</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06711088239694708</v>
+        <v>0.1019605348873146</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03108460627911369</v>
+        <v>0.03765022208154447</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5214075621.135366</v>
+        <v>3802950726.612394</v>
       </c>
       <c r="F71" t="n">
-        <v>0.171863104472277</v>
+        <v>0.1615761387807169</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02944481219074428</v>
+        <v>0.03271432322017434</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1777763936.570358</v>
+        <v>2092751017.8355</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08816424528782738</v>
+        <v>0.1054668092717175</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04144345158016788</v>
+        <v>0.04528958814537003</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2631823783.936131</v>
+        <v>2297522512.853251</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08877241156829051</v>
+        <v>0.1053046091770862</v>
       </c>
       <c r="G73" t="n">
-        <v>0.05016781103319778</v>
+        <v>0.05095986921453902</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3278010789.123151</v>
+        <v>3243313225.519876</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1199658416703631</v>
+        <v>0.1207181529327586</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02921829693457094</v>
+        <v>0.03272268195927844</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2503904517.479735</v>
+        <v>2431728684.115642</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1330166999114616</v>
+        <v>0.1633369156067074</v>
       </c>
       <c r="G75" t="n">
-        <v>0.0376069528538649</v>
+        <v>0.02373549488295351</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3906015108.876829</v>
+        <v>3405022136.934762</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08139640852356889</v>
+        <v>0.09532330498729424</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03009822864671435</v>
+        <v>0.02205573264758866</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2586,13 +2586,13 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1899842069.084516</v>
+        <v>1987905553.399236</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1831323759359249</v>
+        <v>0.1282013725069616</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02149703189926843</v>
+        <v>0.03151419667224693</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3903490379.794072</v>
+        <v>4590260123.399767</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1128838097155644</v>
+        <v>0.1205410725748868</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03812290476315996</v>
+        <v>0.05232270017912961</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2642,16 +2642,16 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1344316895.97299</v>
+        <v>1537087809.751875</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1657003680350711</v>
+        <v>0.1572078868174413</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02739267272325495</v>
+        <v>0.02635627592580928</v>
       </c>
       <c r="H79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5122005378.890773</v>
+        <v>3428309092.274741</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07216552559226688</v>
+        <v>0.07673130090975415</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03764903550504674</v>
+        <v>0.02560176392009421</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4839202628.755513</v>
+        <v>4986044087.651534</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1117625263822423</v>
+        <v>0.1279817968464686</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02592402218519326</v>
+        <v>0.0316956355975368</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4975578907.823208</v>
+        <v>5267144448.234201</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1513227145677311</v>
+        <v>0.1602185079128283</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02432017540688142</v>
+        <v>0.021120345573622</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2075320367.693222</v>
+        <v>2267689646.08253</v>
       </c>
       <c r="F83" t="n">
-        <v>0.10984511836153</v>
+        <v>0.1106738894878543</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04014411981490826</v>
+        <v>0.03171567860531204</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2426433365.523053</v>
+        <v>2575577682.871163</v>
       </c>
       <c r="F84" t="n">
-        <v>0.11232561399716</v>
+        <v>0.08690095949168948</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04751143574545365</v>
+        <v>0.03687187274959863</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2992209489.468484</v>
+        <v>2263747055.134962</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1649224334719465</v>
+        <v>0.1247647968504074</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04053312561596481</v>
+        <v>0.04368361091730251</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2128642175.60314</v>
+        <v>2450734689.286374</v>
       </c>
       <c r="F86" t="n">
-        <v>0.128200458890555</v>
+        <v>0.1090905561083735</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01780293056324723</v>
+        <v>0.01659391594250928</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1477023309.219769</v>
+        <v>1079309595.11766</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1531456082441484</v>
+        <v>0.1219226805577128</v>
       </c>
       <c r="G87" t="n">
-        <v>0.0285269843080912</v>
+        <v>0.04305326005176989</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2424827406.032481</v>
+        <v>3408683899.249237</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1334297959280394</v>
+        <v>0.1769798854316905</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03967879809459283</v>
+        <v>0.02903374007314665</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2922,16 +2922,16 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2654740470.092835</v>
+        <v>3232370079.066469</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1296980812155316</v>
+        <v>0.1364682204158208</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02757690281007693</v>
+        <v>0.03754794317769213</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -2950,16 +2950,16 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1512497267.778114</v>
+        <v>2019402039.395252</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1168276925861614</v>
+        <v>0.09174739070028398</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04826996156960386</v>
+        <v>0.05528364716379421</v>
       </c>
       <c r="H90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>2101700804.774242</v>
+        <v>1570827821.721489</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1905518194502169</v>
+        <v>0.137340930560551</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05078409523632973</v>
+        <v>0.03898710043012691</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1874159445.35268</v>
+        <v>1948991273.188033</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1003743224904827</v>
+        <v>0.1054569786047918</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03209672572485045</v>
+        <v>0.04367720752311739</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3200425307.601962</v>
+        <v>4323162410.408871</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09915697468827059</v>
+        <v>0.1083980389024587</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04784114350262154</v>
+        <v>0.04165058032072728</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2101046337.747388</v>
+        <v>1847984993.229728</v>
       </c>
       <c r="F94" t="n">
-        <v>0.160852616110272</v>
+        <v>0.1435573413043442</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03134889845303073</v>
+        <v>0.04248006201349793</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,22 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3065735162.750503</v>
+        <v>2984326744.704154</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1094645698957577</v>
+        <v>0.1277070568800456</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0459369758195463</v>
+        <v>0.03768713361194127</v>
       </c>
       <c r="H95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -3112,22 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1636777819.860786</v>
+        <v>2167025748.640783</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1076981878459648</v>
+        <v>0.139546318521734</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03708459364799371</v>
+        <v>0.04586567400712027</v>
       </c>
       <c r="H96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -3146,16 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3838458208.198343</v>
+        <v>5350188356.191535</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1439710904968129</v>
+        <v>0.1166938752808306</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02569075062057873</v>
+        <v>0.02798190895544536</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3109357972.676583</v>
+        <v>3039833401.270909</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1056745030459966</v>
+        <v>0.07848514987357243</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03061220393049706</v>
+        <v>0.02224632181546039</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3310659252.121451</v>
+        <v>2118151408.37756</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1456088930989381</v>
+        <v>0.1118257925123792</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03182898861767593</v>
+        <v>0.02571652943183351</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3245611327.811258</v>
+        <v>3798825875.968861</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1560671309556726</v>
+        <v>0.1605705820412185</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02454732710961045</v>
+        <v>0.02141193096743739</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3213309484.984924</v>
+        <v>3563292386.033184</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1466463884005053</v>
+        <v>0.188643766028826</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05345667582265844</v>
+        <v>0.03650303325127612</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_422.xlsx
+++ b/output/fit_clients/fit_round_422.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2214875131.069848</v>
+        <v>1582237596.420534</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0861457036640426</v>
+        <v>0.10962347530744</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03384569325035656</v>
+        <v>0.03302055014287792</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1921436516.429364</v>
+        <v>1662003380.850588</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1386825137125694</v>
+        <v>0.1691295899702402</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04703024297779603</v>
+        <v>0.03719011114002866</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,23 +565,30 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3915679220.027</v>
+        <v>4885278208.506186</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1186631125562976</v>
+        <v>0.1166257376403279</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03499284522016526</v>
+        <v>0.02670304191130445</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>214</v>
+      </c>
+      <c r="J4" t="n">
+        <v>422</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -570,17 +606,24 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3634720380.072615</v>
+        <v>3783878391.194695</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1009841757321615</v>
+        <v>0.08315647952750971</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04296299889606869</v>
+        <v>0.04775478524424387</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>173</v>
+      </c>
+      <c r="J5" t="n">
+        <v>422</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -598,17 +641,24 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2388357701.205843</v>
+        <v>2490286345.991768</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1429673329014635</v>
+        <v>0.1335943533060925</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04796395380736318</v>
+        <v>0.03751911956369467</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +670,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>3119336430.400763</v>
+        <v>2196002324.174285</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08394335807764242</v>
+        <v>0.08055794494592129</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04718333217656225</v>
+        <v>0.04496772039259059</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +705,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3910489464.821721</v>
+        <v>3627809230.336132</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1820409861683065</v>
+        <v>0.1561069961098288</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02864488752885208</v>
+        <v>0.02392444782060162</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>113</v>
+      </c>
+      <c r="J8" t="n">
+        <v>422</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +740,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2168402309.754124</v>
+        <v>1587750949.793397</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1506834051169529</v>
+        <v>0.17565185551015</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03557411999604278</v>
+        <v>0.02519670313582019</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -710,16 +781,25 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5745490142.391764</v>
+        <v>4642100888.378995</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1693726079592168</v>
+        <v>0.1567892305670472</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03861067010375498</v>
+        <v>0.05292782472612685</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>336</v>
+      </c>
+      <c r="J10" t="n">
+        <v>421</v>
+      </c>
+      <c r="K10" t="n">
+        <v>39.61008488725439</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +812,31 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4054695819.518929</v>
+        <v>3915288678.10101</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1582025111287406</v>
+        <v>0.1230094751336598</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03964326821243447</v>
+        <v>0.03246014642855096</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>174</v>
+      </c>
+      <c r="J11" t="n">
+        <v>422</v>
+      </c>
+      <c r="K11" t="n">
+        <v>51.51386385425982</v>
       </c>
     </row>
     <row r="12">
@@ -766,17 +855,24 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2311726702.820179</v>
+        <v>3307189389.575267</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1572989215891063</v>
+        <v>0.1244452167775812</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04735007966081722</v>
+        <v>0.05079853343859803</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>308</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -794,17 +890,24 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4218778756.816979</v>
+        <v>4389608141.72683</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08661482672393415</v>
+        <v>0.09085637734256596</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02802848643343802</v>
+        <v>0.02910047815712923</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>220</v>
+      </c>
+      <c r="J13" t="n">
+        <v>422</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -816,23 +919,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3680354276.618589</v>
+        <v>2578805551.790193</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1441462230764076</v>
+        <v>0.1251956307059035</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0281864511787783</v>
+        <v>0.04192891180496486</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>88</v>
+      </c>
+      <c r="J14" t="n">
+        <v>420</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +954,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1278957093.549402</v>
+        <v>1643583006.348786</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07273142855266988</v>
+        <v>0.07217681668341043</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04707825602532494</v>
+        <v>0.03358551276565473</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +989,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2727924506.48544</v>
+        <v>1754453336.619748</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1113213985636538</v>
+        <v>0.07491749491488811</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04816260011493891</v>
+        <v>0.04285414882927845</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,22 +1024,31 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3919955059.617821</v>
+        <v>4178981499.565732</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1690027844630677</v>
+        <v>0.1110503748438704</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03326148794572532</v>
+        <v>0.05204612761791812</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>205</v>
+      </c>
+      <c r="J17" t="n">
+        <v>421</v>
+      </c>
+      <c r="K17" t="n">
+        <v>41.44884244326325</v>
       </c>
     </row>
     <row r="18">
@@ -934,17 +1067,24 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3319017893.65094</v>
+        <v>3468116719.351772</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1642640905253186</v>
+        <v>0.1453769841448068</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02531563091935706</v>
+        <v>0.03405254471746583</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>108</v>
+      </c>
+      <c r="J18" t="n">
+        <v>416</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1096,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1044666589.678143</v>
+        <v>1162474439.492774</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1395053524953411</v>
+        <v>0.1410673537061947</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01770793430714865</v>
+        <v>0.02367659812246127</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1131,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1951481343.396521</v>
+        <v>1760194264.560841</v>
       </c>
       <c r="F20" t="n">
-        <v>0.139628288729613</v>
+        <v>0.1182950898111104</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02709122351844073</v>
+        <v>0.0262995895205831</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1018,17 +1172,24 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2512181193.427156</v>
+        <v>2678936359.573183</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07571544151716959</v>
+        <v>0.0731098714231649</v>
       </c>
       <c r="G21" t="n">
-        <v>0.02887250014889379</v>
+        <v>0.03953684823299922</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1046,16 +1207,25 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3264670897.758595</v>
+        <v>3592735987.247275</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1119589093475584</v>
+        <v>0.1350726355308467</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04185450201193645</v>
+        <v>0.04371014017547155</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>118</v>
+      </c>
+      <c r="J22" t="n">
+        <v>422</v>
+      </c>
+      <c r="K22" t="n">
+        <v>48.79196526197215</v>
       </c>
     </row>
     <row r="23">
@@ -1068,23 +1238,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1206965603.895272</v>
+        <v>1508425114.653462</v>
       </c>
       <c r="F23" t="n">
-        <v>0.176798506343663</v>
+        <v>0.1697164973356653</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04033965717206617</v>
+        <v>0.04267516266386002</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1102,17 +1279,24 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2952537046.918867</v>
+        <v>4075761786.814436</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1191062694641069</v>
+        <v>0.09696485022713294</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0246946531379962</v>
+        <v>0.0329621146044907</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
+      <c r="I24" t="n">
+        <v>133</v>
+      </c>
+      <c r="J24" t="n">
+        <v>422</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1308,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1202720279.564945</v>
+        <v>1269202442.716756</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1086037356595148</v>
+        <v>0.1112911757034492</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02514945659515203</v>
+        <v>0.02043364754272613</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1158,17 +1349,24 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1409511382.749924</v>
+        <v>1069448294.163551</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1054143548414563</v>
+        <v>0.1057833656805881</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0247457427376636</v>
+        <v>0.03896402819585001</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1378,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3708771155.335548</v>
+        <v>3585427525.781142</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1464063382301202</v>
+        <v>0.117848568409307</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02292265540629125</v>
+        <v>0.02250855216197336</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>180</v>
+      </c>
+      <c r="J27" t="n">
+        <v>420</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1208,22 +1413,31 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3069896737.889556</v>
+        <v>2561903185.765031</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1347242693037279</v>
+        <v>0.1465336801295975</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04735814282589604</v>
+        <v>0.04732872109629918</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>104</v>
+      </c>
+      <c r="J28" t="n">
+        <v>421</v>
+      </c>
+      <c r="K28" t="n">
+        <v>26.00342891927799</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1450,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3605206948.104653</v>
+        <v>4814989863.561275</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1119387599241834</v>
+        <v>0.1427991010135165</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03722961522983195</v>
+        <v>0.03750145213497774</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>352</v>
+      </c>
+      <c r="J29" t="n">
+        <v>421</v>
+      </c>
+      <c r="K29" t="n">
+        <v>38.32237506455264</v>
       </c>
     </row>
     <row r="30">
@@ -1270,17 +1493,24 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1568046200.081917</v>
+        <v>1501361579.819606</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1277083122271072</v>
+        <v>0.08944759008596544</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03889011486230655</v>
+        <v>0.03107609433225475</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1298,17 +1528,24 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1265225473.340666</v>
+        <v>1497725177.325673</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09688277269678716</v>
+        <v>0.0892104857671405</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04364936969372517</v>
+        <v>0.04815899158869124</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1557,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1698077976.537369</v>
+        <v>1350329651.874933</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1131038405565843</v>
+        <v>0.1154437389003327</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03214824135521843</v>
+        <v>0.03165929261922312</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1592,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>1947222095.121453</v>
+        <v>1982472279.358089</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2003321789271442</v>
+        <v>0.1610805263110168</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05121618064253781</v>
+        <v>0.06078366663000401</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1627,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1385049054.848705</v>
+        <v>1532523236.814793</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0896238751851757</v>
+        <v>0.1007637753130862</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02581309641463784</v>
+        <v>0.02175302553933928</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1662,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>985614284.0912771</v>
+        <v>1051082692.192623</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09104079738168781</v>
+        <v>0.0956419221982133</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04156321112714757</v>
+        <v>0.03720767757445371</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1697,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3216921293.02239</v>
+        <v>3123807977.570912</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1581376132173404</v>
+        <v>0.160401361672461</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02306169911895229</v>
+        <v>0.01944555540797336</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1466,17 +1738,24 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2491738815.884057</v>
+        <v>2791826903.957601</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1013014756224846</v>
+        <v>0.08911160530516921</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03352565964184035</v>
+        <v>0.03948848874414511</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1767,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1961013513.169989</v>
+        <v>2055323629.064052</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1131191084519212</v>
+        <v>0.08398122560067094</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03365616381846793</v>
+        <v>0.03068536911028575</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1802,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1513983054.649133</v>
+        <v>1490716485.524276</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1909837500970934</v>
+        <v>0.1646713514749145</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02438832720169283</v>
+        <v>0.02970615262566994</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1837,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1539939247.22388</v>
+        <v>1317279200.983686</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1296390825056645</v>
+        <v>0.109209457190302</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05424905332594724</v>
+        <v>0.05521643467994173</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1578,17 +1878,24 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2794276928.536112</v>
+        <v>2086697133.692459</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1126205137694419</v>
+        <v>0.1157932333030837</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03905600844780651</v>
+        <v>0.03012541055156812</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1907,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4292435109.522798</v>
+        <v>3059701334.875394</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09754992433709717</v>
+        <v>0.1097431829388653</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04058971419729041</v>
+        <v>0.0311391441638219</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
       </c>
+      <c r="I42" t="n">
+        <v>180</v>
+      </c>
+      <c r="J42" t="n">
+        <v>420</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1942,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2839449100.733513</v>
+        <v>2631211181.357428</v>
       </c>
       <c r="F43" t="n">
-        <v>0.146524490460726</v>
+        <v>0.1274492028611941</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02092143266079475</v>
+        <v>0.01682298253090638</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1977,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2263781265.821686</v>
+        <v>1693845484.816424</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07008085733286173</v>
+        <v>0.07119092004747007</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02649874972028845</v>
+        <v>0.03337800363299755</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2012,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1877773458.860255</v>
+        <v>2105774182.001084</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1815595266377545</v>
+        <v>0.1210578124016873</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05517546931357277</v>
+        <v>0.04897387599409001</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,23 +2047,30 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5307100377.152102</v>
+        <v>4972910415.485504</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1490680174005828</v>
+        <v>0.132377401601487</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0525590664738857</v>
+        <v>0.05462644794513383</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
       </c>
+      <c r="I46" t="n">
+        <v>252</v>
+      </c>
+      <c r="J46" t="n">
+        <v>422</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1740,23 +2082,30 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3771070417.447643</v>
+        <v>4879108469.962867</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1830864464850559</v>
+        <v>0.2032901841514193</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04240167811978311</v>
+        <v>0.04482768875602972</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>188</v>
+      </c>
+      <c r="J47" t="n">
+        <v>422</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1774,16 +2123,25 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3557558674.510192</v>
+        <v>3582307705.984304</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07427106765328856</v>
+        <v>0.09668817193105586</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02519606978134643</v>
+        <v>0.03352107990686743</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>216</v>
+      </c>
+      <c r="J48" t="n">
+        <v>421</v>
+      </c>
+      <c r="K48" t="n">
+        <v>35.3290214198863</v>
       </c>
     </row>
     <row r="49">
@@ -1796,23 +2154,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1733965944.498124</v>
+        <v>1608773954.127942</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1586413287622458</v>
+        <v>0.1262604886824276</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03972001807888405</v>
+        <v>0.04017377901310461</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1830,16 +2195,25 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3642385885.374966</v>
+        <v>2852001231.705658</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1427793762938367</v>
+        <v>0.1455100667439135</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05217666756247027</v>
+        <v>0.03302469875266013</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>146</v>
+      </c>
+      <c r="J50" t="n">
+        <v>421</v>
+      </c>
+      <c r="K50" t="n">
+        <v>26.26133525131596</v>
       </c>
     </row>
     <row r="51">
@@ -1852,23 +2226,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1114374311.59987</v>
+        <v>950250119.4983883</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1624783412808908</v>
+        <v>0.1440330719700719</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04221731101597555</v>
+        <v>0.04837689583526985</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1886,17 +2267,24 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4344837067.865446</v>
+        <v>3426467792.83134</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1329647980462821</v>
+        <v>0.1384403146683705</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0485616404318962</v>
+        <v>0.04436004899685</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
       </c>
+      <c r="I52" t="n">
+        <v>243</v>
+      </c>
+      <c r="J52" t="n">
+        <v>420</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1908,23 +2296,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3298826551.90284</v>
+        <v>2567316369.992463</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1904314721243969</v>
+        <v>0.1877670382706657</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03367830721057715</v>
+        <v>0.03116369126165959</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>62</v>
+      </c>
+      <c r="J53" t="n">
+        <v>419</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1942,16 +2337,25 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4865369795.936156</v>
+        <v>4555604192.474886</v>
       </c>
       <c r="F54" t="n">
-        <v>0.105563196927268</v>
+        <v>0.1694309181560449</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04750243585302983</v>
+        <v>0.05197252130483034</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>225</v>
+      </c>
+      <c r="J54" t="n">
+        <v>422</v>
+      </c>
+      <c r="K54" t="n">
+        <v>41.79751587954487</v>
       </c>
     </row>
     <row r="55">
@@ -1970,17 +2374,24 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3839929856.58579</v>
+        <v>3814386176.510069</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1385081060497743</v>
+        <v>0.2160431286195429</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02869869988057548</v>
+        <v>0.0231054189778635</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
       </c>
+      <c r="I55" t="n">
+        <v>209</v>
+      </c>
+      <c r="J55" t="n">
+        <v>422</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1998,17 +2409,24 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1212989991.545542</v>
+        <v>1457315926.405827</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1234388087302934</v>
+        <v>0.1015772113886561</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04686008315834903</v>
+        <v>0.03866798135822679</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,22 +2438,31 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4246594531.807662</v>
+        <v>4513583126.732188</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1837834414712307</v>
+        <v>0.1367780384251358</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02189591690536184</v>
+        <v>0.02733572550943346</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>183</v>
+      </c>
+      <c r="J57" t="n">
+        <v>422</v>
+      </c>
+      <c r="K57" t="n">
+        <v>41.77595018071987</v>
       </c>
     </row>
     <row r="58">
@@ -2048,23 +2475,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1796562580.554524</v>
+        <v>1523327094.795952</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1428425272439548</v>
+        <v>0.1788584002026087</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02590209972063061</v>
+        <v>0.02507325172989874</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,22 +2510,31 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4880376493.239272</v>
+        <v>3746544808.161274</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08084180740069062</v>
+        <v>0.09499756777147866</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04000133996164343</v>
+        <v>0.0426439856984635</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>206</v>
+      </c>
+      <c r="J59" t="n">
+        <v>421</v>
+      </c>
+      <c r="K59" t="n">
+        <v>38.11363549319265</v>
       </c>
     </row>
     <row r="60">
@@ -2104,23 +2547,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2982305117.48796</v>
+        <v>2816580012.654392</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1557518716068811</v>
+        <v>0.1487801941947728</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02507659617098926</v>
+        <v>0.03317992762370054</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>82</v>
+      </c>
+      <c r="J60" t="n">
+        <v>420</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2582,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3110609841.132438</v>
+        <v>2107960858.836752</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1232526624669754</v>
+        <v>0.1649688533250095</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03186480464430567</v>
+        <v>0.02115904081191636</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>14</v>
+      </c>
+      <c r="J61" t="n">
+        <v>412</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2617,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1719082058.388673</v>
+        <v>1501764548.144418</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1326711783580515</v>
+        <v>0.1569589784129031</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04473928204699536</v>
+        <v>0.03085392520639931</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2194,17 +2658,24 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3423208420.609273</v>
+        <v>4480413606.580271</v>
       </c>
       <c r="F63" t="n">
-        <v>0.107419431508868</v>
+        <v>0.1024940560237104</v>
       </c>
       <c r="G63" t="n">
-        <v>0.02943140065758598</v>
+        <v>0.04765423460576024</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>210</v>
+      </c>
+      <c r="J63" t="n">
+        <v>422</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2216,23 +2687,30 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3562682825.62039</v>
+        <v>4855979875.549445</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1516043972074731</v>
+        <v>0.1653344610863636</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03198916173688336</v>
+        <v>0.03474640923868048</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>211</v>
+      </c>
+      <c r="J64" t="n">
+        <v>422</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2250,17 +2728,24 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5020217568.753426</v>
+        <v>4395778549.395282</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1469278462873743</v>
+        <v>0.1320381217173878</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0311531233914683</v>
+        <v>0.02003962587616913</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
       </c>
+      <c r="I65" t="n">
+        <v>308</v>
+      </c>
+      <c r="J65" t="n">
+        <v>422</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2272,22 +2757,31 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4381687093.90429</v>
+        <v>4864903716.479648</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1385182052304072</v>
+        <v>0.1331057904925437</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04586148547394001</v>
+        <v>0.046157324825262</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>208</v>
+      </c>
+      <c r="J66" t="n">
+        <v>421</v>
+      </c>
+      <c r="K66" t="n">
+        <v>40.91893541799212</v>
       </c>
     </row>
     <row r="67">
@@ -2300,23 +2794,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2208958533.137084</v>
+        <v>2180754151.778121</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07081697216879064</v>
+        <v>0.06820914608989317</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03138060526417846</v>
+        <v>0.04765456078406078</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>11</v>
+      </c>
+      <c r="J67" t="n">
+        <v>389</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,23 +2829,30 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5678936914.067204</v>
+        <v>5290947190.51525</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1077785788453676</v>
+        <v>0.1133296077124108</v>
       </c>
       <c r="G68" t="n">
-        <v>0.0379762819976413</v>
+        <v>0.04815884153766705</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>230</v>
+      </c>
+      <c r="J68" t="n">
+        <v>422</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2356,23 +2864,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1610639702.679761</v>
+        <v>2131207175.833205</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1467833230052037</v>
+        <v>0.1214141940034247</v>
       </c>
       <c r="G69" t="n">
-        <v>0.0386839132273224</v>
+        <v>0.05503893743564801</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2899,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2527519538.06171</v>
+        <v>2696187965.310709</v>
       </c>
       <c r="F70" t="n">
-        <v>0.1019605348873146</v>
+        <v>0.07415051400055714</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03765022208154447</v>
+        <v>0.0455955284432715</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>56</v>
+      </c>
+      <c r="J70" t="n">
+        <v>413</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,23 +2934,30 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3802950726.612394</v>
+        <v>3893861953.141305</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1615761387807169</v>
+        <v>0.1484420148255058</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03271432322017434</v>
+        <v>0.02615384025492882</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
       </c>
+      <c r="I71" t="n">
+        <v>294</v>
+      </c>
+      <c r="J71" t="n">
+        <v>422</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2446,17 +2975,24 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2092751017.8355</v>
+        <v>2251249412.146969</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1054668092717175</v>
+        <v>0.08736990606505184</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04528958814537003</v>
+        <v>0.04520524625447379</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2474,17 +3010,24 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2297522512.853251</v>
+        <v>3183178775.846674</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1053046091770862</v>
+        <v>0.1048226198190651</v>
       </c>
       <c r="G73" t="n">
-        <v>0.05095986921453902</v>
+        <v>0.05053312608660078</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>29</v>
+      </c>
+      <c r="J73" t="n">
+        <v>382</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,22 +3039,31 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3243313225.519876</v>
+        <v>2503314374.421829</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1207181529327586</v>
+        <v>0.1741095561644052</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03272268195927844</v>
+        <v>0.0343538981008691</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>121</v>
+      </c>
+      <c r="J74" t="n">
+        <v>421</v>
+      </c>
+      <c r="K74" t="n">
+        <v>23.47341115410955</v>
       </c>
     </row>
     <row r="75">
@@ -2524,23 +3076,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2431728684.115642</v>
+        <v>1506598922.117434</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1633369156067074</v>
+        <v>0.1191589024330619</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02373549488295351</v>
+        <v>0.02817180362279389</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,22 +3111,31 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3405022136.934762</v>
+        <v>5079302936.032487</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09532330498729424</v>
+        <v>0.1022125364658566</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02205573264758866</v>
+        <v>0.02410502658242149</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>201</v>
+      </c>
+      <c r="J76" t="n">
+        <v>421</v>
+      </c>
+      <c r="K76" t="n">
+        <v>41.16335730646317</v>
       </c>
     </row>
     <row r="77">
@@ -2580,23 +3148,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1987905553.399236</v>
+        <v>1576287767.884117</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1282013725069616</v>
+        <v>0.1266292736382719</v>
       </c>
       <c r="G77" t="n">
-        <v>0.03151419667224693</v>
+        <v>0.03011899516431612</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,23 +3183,30 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4590260123.399767</v>
+        <v>4201177607.036769</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1205410725748868</v>
+        <v>0.1096511843589175</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05232270017912961</v>
+        <v>0.05567915290750874</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
       </c>
+      <c r="I78" t="n">
+        <v>211</v>
+      </c>
+      <c r="J78" t="n">
+        <v>422</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2636,23 +3218,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1537087809.751875</v>
+        <v>1323272302.218744</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1572078868174413</v>
+        <v>0.1523018906690033</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02635627592580928</v>
+        <v>0.03268096010270312</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,22 +3253,31 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3428309092.274741</v>
+        <v>4101903115.37707</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07673130090975415</v>
+        <v>0.08415991305360905</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02560176392009421</v>
+        <v>0.02455605693262868</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>206</v>
+      </c>
+      <c r="J80" t="n">
+        <v>421</v>
+      </c>
+      <c r="K80" t="n">
+        <v>34.37588366895805</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +3290,31 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4986044087.651534</v>
+        <v>3275399867.474563</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1279817968464686</v>
+        <v>0.1136312877621252</v>
       </c>
       <c r="G81" t="n">
-        <v>0.0316956355975368</v>
+        <v>0.02801223361949573</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>196</v>
+      </c>
+      <c r="J81" t="n">
+        <v>421</v>
+      </c>
+      <c r="K81" t="n">
+        <v>29.51748912930963</v>
       </c>
     </row>
     <row r="82">
@@ -2720,22 +3327,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5267144448.234201</v>
+        <v>5294015373.8131</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1602185079128283</v>
+        <v>0.1978469883968815</v>
       </c>
       <c r="G82" t="n">
-        <v>0.021120345573622</v>
+        <v>0.02254506691817064</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>286</v>
+      </c>
+      <c r="J82" t="n">
+        <v>422</v>
+      </c>
+      <c r="K82" t="n">
+        <v>42.73536150882803</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3364,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2267689646.08253</v>
+        <v>1651168135.219594</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1106738894878543</v>
+        <v>0.1183139258941085</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03171567860531204</v>
+        <v>0.04513679847612379</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3399,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2575577682.871163</v>
+        <v>2519095607.767457</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08690095949168948</v>
+        <v>0.07774265826142035</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03687187274959863</v>
+        <v>0.03157893653719267</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,22 +3434,31 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2263747055.134962</v>
+        <v>2354070140.105333</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1247647968504074</v>
+        <v>0.128157050230016</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04368361091730251</v>
+        <v>0.04332659472046798</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
+      </c>
+      <c r="I85" t="n">
+        <v>55</v>
+      </c>
+      <c r="J85" t="n">
+        <v>421</v>
+      </c>
+      <c r="K85" t="n">
+        <v>27.86281518111886</v>
       </c>
     </row>
     <row r="86">
@@ -2832,23 +3471,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2450734689.286374</v>
+        <v>2709638683.07364</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1090905561083735</v>
+        <v>0.169803529492816</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01659391594250928</v>
+        <v>0.01996439182738699</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3506,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1079309595.11766</v>
+        <v>1381799579.183667</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1219226805577128</v>
+        <v>0.1311630271153161</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04305326005176989</v>
+        <v>0.04057993191970782</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3541,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3408683899.249237</v>
+        <v>3047958417.092402</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1769798854316905</v>
+        <v>0.1458126003707063</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02903374007314665</v>
+        <v>0.03494358420040913</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>54</v>
+      </c>
+      <c r="J88" t="n">
+        <v>419</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2922,17 +3582,24 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3232370079.066469</v>
+        <v>2544309547.739917</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1364682204158208</v>
+        <v>0.1110845279301693</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03754794317769213</v>
+        <v>0.03422661996773796</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>26</v>
+      </c>
+      <c r="J89" t="n">
+        <v>333</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3611,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2019402039.395252</v>
+        <v>1726986799.197421</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09174739070028398</v>
+        <v>0.1290362522019538</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05528364716379421</v>
+        <v>0.03547568294779077</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2978,17 +3652,24 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1570827821.721489</v>
+        <v>1530237484.705469</v>
       </c>
       <c r="F91" t="n">
-        <v>0.137340930560551</v>
+        <v>0.1621698805805137</v>
       </c>
       <c r="G91" t="n">
-        <v>0.03898710043012691</v>
+        <v>0.0402401682582343</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3681,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1948991273.188033</v>
+        <v>2898626773.278296</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1054569786047918</v>
+        <v>0.07454463556274907</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04367720752311739</v>
+        <v>0.04243075886802349</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,22 +3716,31 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4323162410.408871</v>
+        <v>4955302864.469493</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1083980389024587</v>
+        <v>0.09273033747423687</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04165058032072728</v>
+        <v>0.04362331730523232</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>203</v>
+      </c>
+      <c r="J93" t="n">
+        <v>421</v>
+      </c>
+      <c r="K93" t="n">
+        <v>39.00733250608247</v>
       </c>
     </row>
     <row r="94">
@@ -3056,23 +3753,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1847984993.229728</v>
+        <v>1888526163.571587</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1435573413043442</v>
+        <v>0.1114489105244764</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04248006201349793</v>
+        <v>0.03940033599301523</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3788,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2984326744.704154</v>
+        <v>2104692021.008972</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1277070568800456</v>
+        <v>0.112226045050816</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03768713361194127</v>
+        <v>0.05115223713254469</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3823,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2167025748.640783</v>
+        <v>2229783356.680894</v>
       </c>
       <c r="F96" t="n">
-        <v>0.139546318521734</v>
+        <v>0.1233103352129489</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04586567400712027</v>
+        <v>0.02889040025951464</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,23 +3858,30 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5350188356.191535</v>
+        <v>4582184910.70224</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1166938752808306</v>
+        <v>0.1129270539834287</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02798190895544536</v>
+        <v>0.02150335857411169</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>220</v>
+      </c>
+      <c r="J97" t="n">
+        <v>422</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3168,23 +3893,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3039833401.270909</v>
+        <v>3187284242.614228</v>
       </c>
       <c r="F98" t="n">
-        <v>0.07848514987357243</v>
+        <v>0.08300445050965669</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02224632181546039</v>
+        <v>0.02216281147091266</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>108</v>
+      </c>
+      <c r="J98" t="n">
+        <v>416</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3928,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2118151408.37756</v>
+        <v>3001362470.660478</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1118257925123792</v>
+        <v>0.09727979143998852</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02571652943183351</v>
+        <v>0.03269350105193082</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>9</v>
+      </c>
+      <c r="J99" t="n">
+        <v>386</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,22 +3963,31 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3798825875.968861</v>
+        <v>3520547545.926179</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1605705820412185</v>
+        <v>0.1323204400753344</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02141193096743739</v>
+        <v>0.02033858253585209</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>197</v>
+      </c>
+      <c r="J100" t="n">
+        <v>421</v>
+      </c>
+      <c r="K100" t="n">
+        <v>33.50500573355647</v>
       </c>
     </row>
     <row r="101">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3563292386.033184</v>
+        <v>2759039755.37949</v>
       </c>
       <c r="F101" t="n">
-        <v>0.188643766028826</v>
+        <v>0.207208795724913</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03650303325127612</v>
+        <v>0.05066542152371009</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>38</v>
+      </c>
+      <c r="J101" t="n">
+        <v>400</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
